--- a/a2_q3.xlsx
+++ b/a2_q3.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O57"/>
+  <dimension ref="A1:S57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -400,39 +400,55 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Number of Teams or Chromatic Number</t>
+          <t>Number of Team</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Number of Values Pruned</t>
+          <t>Number of Total Conflicts</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Number of Assigned Variables in Last Case</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Number of UnAssigned Variables in Last Case</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="H5" t="n">
+      <c r="J5" t="n">
         <v>1</v>
       </c>
-      <c r="I5" t="n">
-        <v>30</v>
-      </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
+        <v>30</v>
+      </c>
+      <c r="L5" t="n">
         <v>0.1</v>
       </c>
-      <c r="K5" t="n">
-        <v>0.00159454345703125</v>
-      </c>
-      <c r="L5" t="n">
-        <v>57</v>
-      </c>
       <c r="M5" t="n">
-        <v>25</v>
+        <v>0.001451969146728516</v>
       </c>
       <c r="N5" t="n">
+        <v>36</v>
+      </c>
+      <c r="O5" t="n">
+        <v>5</v>
+      </c>
+      <c r="P5" t="n">
         <v>3</v>
       </c>
-      <c r="O5" t="n">
-        <v>42</v>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>30</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -446,19 +462,25 @@
         <v>0.2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.003629207611083984</v>
+        <v>0.00336456298828125</v>
       </c>
       <c r="E6" t="n">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="F6" t="n">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="G6" t="n">
         <v>4</v>
       </c>
       <c r="H6" t="n">
-        <v>30</v>
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>43</v>
+      </c>
+      <c r="J6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -472,19 +494,25 @@
         <v>0.3</v>
       </c>
       <c r="D7" t="n">
-        <v>1.114767789840698</v>
+        <v>0.01727056503295898</v>
       </c>
       <c r="E7" t="n">
-        <v>50132</v>
+        <v>598</v>
       </c>
       <c r="F7" t="n">
-        <v>42760</v>
+        <v>470</v>
       </c>
       <c r="G7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H7" t="n">
-        <v>48</v>
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>30</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -498,19 +526,25 @@
         <v>0.4</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2263755798339844</v>
+        <v>0.6149914264678955</v>
       </c>
       <c r="E8" t="n">
-        <v>9257</v>
+        <v>27218</v>
       </c>
       <c r="F8" t="n">
-        <v>7725</v>
+        <v>23026</v>
       </c>
       <c r="G8" t="n">
         <v>6</v>
       </c>
       <c r="H8" t="n">
-        <v>206</v>
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>30</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -524,19 +558,25 @@
         <v>0.5</v>
       </c>
       <c r="D9" t="n">
-        <v>1.392831802368164</v>
+        <v>0.04472088813781738</v>
       </c>
       <c r="E9" t="n">
-        <v>54937</v>
+        <v>1533</v>
       </c>
       <c r="F9" t="n">
-        <v>45428</v>
+        <v>1188</v>
       </c>
       <c r="G9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H9" t="n">
-        <v>233</v>
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>131</v>
+      </c>
+      <c r="J9" t="n">
+        <v>83</v>
       </c>
     </row>
     <row r="15">
@@ -579,39 +619,55 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Number of Teams or Chromatic Number</t>
+          <t>Number of Team</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Number of Values Pruned</t>
+          <t>Number of Total Conflicts</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Number of Assigned Variables in Last Case</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Number of UnAssigned Variables in Last Case</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="H17" t="n">
+      <c r="J17" t="n">
         <v>1</v>
       </c>
-      <c r="I17" t="n">
-        <v>30</v>
-      </c>
-      <c r="J17" t="n">
+      <c r="K17" t="n">
+        <v>30</v>
+      </c>
+      <c r="L17" t="n">
         <v>0.1</v>
       </c>
-      <c r="K17" t="n">
-        <v>0.001220226287841797</v>
-      </c>
-      <c r="L17" t="n">
-        <v>37</v>
-      </c>
       <c r="M17" t="n">
-        <v>6</v>
+        <v>0.001358509063720703</v>
       </c>
       <c r="N17" t="n">
+        <v>41</v>
+      </c>
+      <c r="O17" t="n">
+        <v>10</v>
+      </c>
+      <c r="P17" t="n">
         <v>3</v>
       </c>
-      <c r="O17" t="n">
-        <v>30</v>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>30</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -625,19 +681,25 @@
         <v>0.2</v>
       </c>
       <c r="D18" t="n">
-        <v>0.00634455680847168</v>
+        <v>0.003120183944702148</v>
       </c>
       <c r="E18" t="n">
-        <v>245</v>
+        <v>107</v>
       </c>
       <c r="F18" t="n">
-        <v>182</v>
+        <v>66</v>
       </c>
       <c r="G18" t="n">
         <v>4</v>
       </c>
       <c r="H18" t="n">
-        <v>30</v>
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>77</v>
+      </c>
+      <c r="J18" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="19">
@@ -651,19 +713,25 @@
         <v>0.3</v>
       </c>
       <c r="D19" t="n">
-        <v>0.03808689117431641</v>
+        <v>0.01777076721191406</v>
       </c>
       <c r="E19" t="n">
-        <v>1516</v>
+        <v>651</v>
       </c>
       <c r="F19" t="n">
-        <v>1277</v>
+        <v>524</v>
       </c>
       <c r="G19" t="n">
         <v>5</v>
       </c>
       <c r="H19" t="n">
-        <v>36</v>
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>74</v>
+      </c>
+      <c r="J19" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="20">
@@ -677,19 +745,25 @@
         <v>0.4</v>
       </c>
       <c r="D20" t="n">
-        <v>0.09587240219116211</v>
+        <v>0.3421084880828857</v>
       </c>
       <c r="E20" t="n">
-        <v>3627</v>
+        <v>10823</v>
       </c>
       <c r="F20" t="n">
-        <v>2947</v>
+        <v>8933</v>
       </c>
       <c r="G20" t="n">
         <v>6</v>
       </c>
       <c r="H20" t="n">
-        <v>30</v>
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>119</v>
+      </c>
+      <c r="J20" t="n">
+        <v>71</v>
       </c>
     </row>
     <row r="21">
@@ -703,19 +777,25 @@
         <v>0.5</v>
       </c>
       <c r="D21" t="n">
-        <v>12.42335748672485</v>
+        <v>1.685732364654541</v>
       </c>
       <c r="E21" t="n">
-        <v>513463</v>
+        <v>64124</v>
       </c>
       <c r="F21" t="n">
-        <v>432451</v>
+        <v>52240</v>
       </c>
       <c r="G21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H21" t="n">
-        <v>91</v>
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>542</v>
+      </c>
+      <c r="J21" t="n">
+        <v>415</v>
       </c>
     </row>
     <row r="27">
@@ -758,39 +838,55 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Number of Teams or Chromatic Number</t>
+          <t>Number of Team</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Number of Values Pruned</t>
+          <t>Number of Total Conflicts</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Number of Assigned Variables in Last Case</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Number of UnAssigned Variables in Last Case</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="H29" t="n">
+      <c r="J29" t="n">
         <v>1</v>
       </c>
-      <c r="I29" t="n">
-        <v>30</v>
-      </c>
-      <c r="J29" t="n">
+      <c r="K29" t="n">
+        <v>30</v>
+      </c>
+      <c r="L29" t="n">
         <v>0.1</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>0.001269817352294922</v>
       </c>
-      <c r="L29" t="n">
-        <v>45</v>
-      </c>
-      <c r="M29" t="n">
-        <v>14</v>
-      </c>
       <c r="N29" t="n">
+        <v>41</v>
+      </c>
+      <c r="O29" t="n">
+        <v>10</v>
+      </c>
+      <c r="P29" t="n">
         <v>3</v>
       </c>
-      <c r="O29" t="n">
-        <v>30</v>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>30</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -804,19 +900,25 @@
         <v>0.2</v>
       </c>
       <c r="D30" t="n">
-        <v>0.004106998443603516</v>
+        <v>0.006295204162597656</v>
       </c>
       <c r="E30" t="n">
-        <v>132</v>
+        <v>241</v>
       </c>
       <c r="F30" t="n">
-        <v>86</v>
+        <v>176</v>
       </c>
       <c r="G30" t="n">
         <v>4</v>
       </c>
       <c r="H30" t="n">
-        <v>30</v>
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>30</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -830,19 +932,25 @@
         <v>0.3</v>
       </c>
       <c r="D31" t="n">
-        <v>0.01296162605285645</v>
+        <v>0.01696085929870605</v>
       </c>
       <c r="E31" t="n">
-        <v>413</v>
+        <v>552</v>
       </c>
       <c r="F31" t="n">
-        <v>313</v>
+        <v>430</v>
       </c>
       <c r="G31" t="n">
         <v>5</v>
       </c>
       <c r="H31" t="n">
-        <v>43</v>
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>75</v>
+      </c>
+      <c r="J31" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="32">
@@ -856,19 +964,25 @@
         <v>0.4</v>
       </c>
       <c r="D32" t="n">
-        <v>11.41569256782532</v>
+        <v>0.4623517990112305</v>
       </c>
       <c r="E32" t="n">
-        <v>539269</v>
+        <v>18075</v>
       </c>
       <c r="F32" t="n">
-        <v>454653</v>
+        <v>15324</v>
       </c>
       <c r="G32" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H32" t="n">
-        <v>37</v>
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>35</v>
+      </c>
+      <c r="J32" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="33">
@@ -882,19 +996,25 @@
         <v>0.5</v>
       </c>
       <c r="D33" t="n">
-        <v>0.1286759376525879</v>
+        <v>0.9968793392181396</v>
       </c>
       <c r="E33" t="n">
-        <v>4998</v>
+        <v>33278</v>
       </c>
       <c r="F33" t="n">
-        <v>4082</v>
+        <v>26629</v>
       </c>
       <c r="G33" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H33" t="n">
-        <v>173</v>
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>44</v>
+      </c>
+      <c r="J33" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="39">
@@ -937,39 +1057,55 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Number of Teams or Chromatic Number</t>
+          <t>Number of Team</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Number of Values Pruned</t>
+          <t>Number of Total Conflicts</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Number of Assigned Variables in Last Case</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Number of UnAssigned Variables in Last Case</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="H41" t="n">
+      <c r="J41" t="n">
         <v>1</v>
       </c>
-      <c r="I41" t="n">
-        <v>30</v>
-      </c>
-      <c r="J41" t="n">
+      <c r="K41" t="n">
+        <v>30</v>
+      </c>
+      <c r="L41" t="n">
         <v>0.1</v>
       </c>
-      <c r="K41" t="n">
-        <v>0.001155376434326172</v>
-      </c>
-      <c r="L41" t="n">
-        <v>38</v>
-      </c>
       <c r="M41" t="n">
-        <v>7</v>
+        <v>0.001344680786132812</v>
       </c>
       <c r="N41" t="n">
+        <v>36</v>
+      </c>
+      <c r="O41" t="n">
+        <v>5</v>
+      </c>
+      <c r="P41" t="n">
         <v>3</v>
       </c>
-      <c r="O41" t="n">
-        <v>30</v>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>30</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -983,19 +1119,25 @@
         <v>0.2</v>
       </c>
       <c r="D42" t="n">
-        <v>0.002785444259643555</v>
+        <v>0.00406646728515625</v>
       </c>
       <c r="E42" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="F42" t="n">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="G42" t="n">
         <v>4</v>
       </c>
       <c r="H42" t="n">
-        <v>30</v>
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>30</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1009,19 +1151,25 @@
         <v>0.3</v>
       </c>
       <c r="D43" t="n">
-        <v>0.01912450790405273</v>
+        <v>0.04130125045776367</v>
       </c>
       <c r="E43" t="n">
-        <v>748</v>
+        <v>1119</v>
       </c>
       <c r="F43" t="n">
-        <v>607</v>
+        <v>932</v>
       </c>
       <c r="G43" t="n">
         <v>5</v>
       </c>
       <c r="H43" t="n">
-        <v>115</v>
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>732</v>
+      </c>
+      <c r="J43" t="n">
+        <v>602</v>
       </c>
     </row>
     <row r="44">
@@ -1035,19 +1183,25 @@
         <v>0.4</v>
       </c>
       <c r="D44" t="n">
-        <v>0.1218833923339844</v>
+        <v>0.3511857986450195</v>
       </c>
       <c r="E44" t="n">
-        <v>4824</v>
+        <v>12900</v>
       </c>
       <c r="F44" t="n">
-        <v>3789</v>
+        <v>10776</v>
       </c>
       <c r="G44" t="n">
         <v>6</v>
       </c>
       <c r="H44" t="n">
-        <v>75</v>
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>30</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1061,19 +1215,25 @@
         <v>0.5</v>
       </c>
       <c r="D45" t="n">
-        <v>0.04311919212341309</v>
+        <v>0.7743430137634277</v>
       </c>
       <c r="E45" t="n">
-        <v>1478</v>
+        <v>27724</v>
       </c>
       <c r="F45" t="n">
-        <v>1165</v>
+        <v>22623</v>
       </c>
       <c r="G45" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H45" t="n">
-        <v>56</v>
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>368</v>
+      </c>
+      <c r="J45" t="n">
+        <v>292</v>
       </c>
     </row>
     <row r="51">
@@ -1116,39 +1276,55 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Number of Teams or Chromatic Number</t>
+          <t>Number of Team</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Number of Values Pruned</t>
+          <t>Number of Total Conflicts</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Number of Assigned Variables in Last Case</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Number of UnAssigned Variables in Last Case</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="H53" t="n">
+      <c r="J53" t="n">
         <v>1</v>
       </c>
-      <c r="I53" t="n">
-        <v>30</v>
-      </c>
-      <c r="J53" t="n">
+      <c r="K53" t="n">
+        <v>30</v>
+      </c>
+      <c r="L53" t="n">
         <v>0.1</v>
       </c>
-      <c r="K53" t="n">
-        <v>0.001260280609130859</v>
-      </c>
-      <c r="L53" t="n">
-        <v>43</v>
-      </c>
       <c r="M53" t="n">
-        <v>12</v>
+        <v>0.001276493072509766</v>
       </c>
       <c r="N53" t="n">
+        <v>39</v>
+      </c>
+      <c r="O53" t="n">
+        <v>8</v>
+      </c>
+      <c r="P53" t="n">
         <v>3</v>
       </c>
-      <c r="O53" t="n">
-        <v>30</v>
+      <c r="Q53" t="n">
+        <v>0</v>
+      </c>
+      <c r="R53" t="n">
+        <v>30</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1162,19 +1338,25 @@
         <v>0.2</v>
       </c>
       <c r="D54" t="n">
-        <v>0.01325321197509766</v>
+        <v>0.003589630126953125</v>
       </c>
       <c r="E54" t="n">
-        <v>628</v>
+        <v>94</v>
       </c>
       <c r="F54" t="n">
-        <v>510</v>
+        <v>56</v>
       </c>
       <c r="G54" t="n">
         <v>4</v>
       </c>
       <c r="H54" t="n">
-        <v>30</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>35</v>
+      </c>
+      <c r="J54" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="55">
@@ -1188,19 +1370,25 @@
         <v>0.3</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0817725658416748</v>
+        <v>0.03752279281616211</v>
       </c>
       <c r="E55" t="n">
-        <v>4097</v>
+        <v>1120</v>
       </c>
       <c r="F55" t="n">
-        <v>3633</v>
+        <v>891</v>
       </c>
       <c r="G55" t="n">
         <v>5</v>
       </c>
       <c r="H55" t="n">
-        <v>30</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>33</v>
+      </c>
+      <c r="J55" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="56">
@@ -1214,19 +1402,25 @@
         <v>0.4</v>
       </c>
       <c r="D56" t="n">
-        <v>0.2320489883422852</v>
+        <v>0.8586318492889404</v>
       </c>
       <c r="E56" t="n">
-        <v>9722</v>
+        <v>33888</v>
       </c>
       <c r="F56" t="n">
-        <v>8159</v>
+        <v>29453</v>
       </c>
       <c r="G56" t="n">
         <v>6</v>
       </c>
       <c r="H56" t="n">
-        <v>30</v>
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>30</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -1240,19 +1434,25 @@
         <v>0.5</v>
       </c>
       <c r="D57" t="n">
-        <v>1.276143550872803</v>
+        <v>2.574038028717041</v>
       </c>
       <c r="E57" t="n">
-        <v>53162</v>
+        <v>109502</v>
       </c>
       <c r="F57" t="n">
-        <v>44078</v>
+        <v>93379</v>
       </c>
       <c r="G57" t="n">
         <v>7</v>
       </c>
       <c r="H57" t="n">
-        <v>147</v>
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>30</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
